--- a/12. 엑셀의 정보를 불러와 수료증 자동생성/certificate/수료증명단.xlsx
+++ b/12. 엑셀의 정보를 불러와 수료증 자동생성/certificate/수료증명단.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
-    <t>박원석</t>
-  </si>
-  <si>
-    <t>1988-06-16</t>
-  </si>
-  <si>
-    <t>2021-0007</t>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -365,10 +359,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
